--- a/results/Homeopathy_excluded/mod2.galtan_corrupt.galtan.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod2.galtan_corrupt.galtan.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0809196043514236</v>
+        <v>0.080920892266592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0348469149538452</v>
+        <v>0.0348468670479723</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0126209060695568</v>
+        <v>0.0126222878785108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.149218302633291</v>
+        <v>0.149219496654673</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32214543119819</v>
+        <v>2.32218558285861</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0202251061120091</v>
+        <v>0.0202229449498329</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.10441837886726</v>
+        <v>-0.104421992490957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0840758103618545</v>
+        <v>0.0840758002973311</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.269203939147515</v>
+        <v>-0.269207533045108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0603671814129938</v>
+        <v>0.0603635480631941</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.24195506909601</v>
+        <v>-1.24199819831238</v>
       </c>
       <c r="H3" t="n">
-        <v>0.214253140112931</v>
+        <v>0.214237226795874</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0180834560498582</v>
+        <v>-0.0180819618513479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0367897495652502</v>
+        <v>0.036789728482406</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0901900401979967</v>
+        <v>-0.090188504677871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0540231280982804</v>
+        <v>0.0540245809751752</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.491535176606337</v>
+        <v>-0.491494843730507</v>
       </c>
       <c r="H4" t="n">
-        <v>0.623047978798533</v>
+        <v>0.623076498127265</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0415822305656951</v>
+        <v>0.0415830620757127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0306797563453292</v>
+        <v>0.0306797418106309</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0185489869256143</v>
+        <v>-0.0185481269281116</v>
       </c>
       <c r="F5" t="n">
-        <v>0.101713448057004</v>
+        <v>0.101714251079537</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35536378117376</v>
+        <v>1.3553915261863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.17530168316852</v>
+        <v>0.175292847997603</v>
       </c>
     </row>
   </sheetData>
